--- a/src/analysis_examples/circadipy/results_circadipy/sawtooth_0.1/cosinor_per_day_fixed_period_8_sawtooth_0.1_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/sawtooth_0.1/cosinor_per_day_fixed_period_8_sawtooth_0.1_.xlsx
@@ -565,7 +565,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -581,69 +581,69 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>25.90000000000061</v>
+        <v>25.44000000000054</v>
       </c>
       <c r="G2" t="n">
         <v>1</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0211553652380152</v>
+        <v>0.4285337843210271</v>
       </c>
       <c r="I2" t="n">
-        <v>0.0211553652380152</v>
+        <v>0.4285337843210271</v>
       </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="n">
-        <v>7.370786448359363</v>
+        <v>4.928781650389169</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>[0.8120849908242516, 13.929487905894474]</t>
+          <t>[-5.372087361693181, 15.229650662471519]</t>
         </is>
       </c>
       <c r="N2" t="n">
-        <v>0.0284764068214105</v>
+        <v>0.3403405815119336</v>
       </c>
       <c r="O2" t="n">
-        <v>0.0284764068214105</v>
+        <v>0.3403405815119336</v>
       </c>
       <c r="P2" t="n">
-        <v>-1.735895039821387</v>
+        <v>-2.264210921506157</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>[-2.9308952483940818, -0.5408948312486928]</t>
+          <t>[-5.402658837704969, 0.8742369946926551]</t>
         </is>
       </c>
       <c r="R2" t="n">
-        <v>0.005368296293920327</v>
+        <v>0.1531452711389532</v>
       </c>
       <c r="S2" t="n">
-        <v>0.005368296293920327</v>
+        <v>0.1531452711389532</v>
       </c>
       <c r="T2" t="n">
-        <v>9.952770066001221</v>
+        <v>13.88944781721273</v>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>[6.229776575152531, 13.675763556849912]</t>
+          <t>[8.584649506690738, 19.19424612773473]</t>
         </is>
       </c>
       <c r="V2" t="n">
-        <v>2.533642702307048e-06</v>
+        <v>3.681807224209521e-06</v>
       </c>
       <c r="W2" t="n">
-        <v>2.533642702307048e-06</v>
+        <v>3.681807224209521e-06</v>
       </c>
       <c r="X2" t="n">
-        <v>7.155555555555726</v>
+        <v>9.167567567567758</v>
       </c>
       <c r="Y2" t="n">
-        <v>2.229629629629682</v>
+        <v>-3.539699699699776</v>
       </c>
       <c r="Z2" t="n">
-        <v>12.08148148148177</v>
+        <v>21.87483483483529</v>
       </c>
     </row>
     <row r="3">
@@ -667,69 +667,69 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>25.90000000000061</v>
+        <v>25.44000000000054</v>
       </c>
       <c r="G3" t="n">
         <v>1</v>
       </c>
       <c r="H3" t="n">
-        <v>0.5777301478790862</v>
+        <v>0.4612066091128305</v>
       </c>
       <c r="I3" t="n">
-        <v>0.5777301478790862</v>
+        <v>0.4612066091128305</v>
       </c>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
-        <v>3.532278780181909</v>
+        <v>4.523917963335867</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>[-5.5564827730303845, 12.621040333394202]</t>
+          <t>[-5.191873103565193, 14.239709030236927]</t>
         </is>
       </c>
       <c r="N3" t="n">
-        <v>0.4378645299699091</v>
+        <v>0.3533446242884457</v>
       </c>
       <c r="O3" t="n">
-        <v>0.4378645299699091</v>
+        <v>0.3533446242884457</v>
       </c>
       <c r="P3" t="n">
-        <v>-1.182421259008771</v>
+        <v>-2.037789829355541</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>[-4.302000750861699, 1.9371582328441557]</t>
+          <t>[-5.169948270772392, 1.0943686120613103]</t>
         </is>
       </c>
       <c r="R3" t="n">
-        <v>0.4492028257050817</v>
+        <v>0.1967163300780008</v>
       </c>
       <c r="S3" t="n">
-        <v>0.4492028257050817</v>
+        <v>0.1967163300780008</v>
       </c>
       <c r="T3" t="n">
-        <v>14.34006364784738</v>
+        <v>13.19861022822806</v>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>[9.358435288684152, 19.3216920070106]</t>
+          <t>[8.0336694381879, 18.36355101826823]</t>
         </is>
       </c>
       <c r="V3" t="n">
-        <v>6.227200710640091e-07</v>
+        <v>5.632148043721585e-06</v>
       </c>
       <c r="W3" t="n">
-        <v>6.227200710640091e-07</v>
+        <v>5.632148043721585e-06</v>
       </c>
       <c r="X3" t="n">
-        <v>4.874074074074191</v>
+        <v>8.250810810810982</v>
       </c>
       <c r="Y3" t="n">
-        <v>-7.985185185185369</v>
+        <v>-4.430990990991088</v>
       </c>
       <c r="Z3" t="n">
-        <v>17.73333333333375</v>
+        <v>20.93261261261305</v>
       </c>
     </row>
     <row r="4">
@@ -737,7 +737,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -753,69 +753,69 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>25.90000000000061</v>
+        <v>25.44000000000054</v>
       </c>
       <c r="G4" t="n">
         <v>1</v>
       </c>
       <c r="H4" t="n">
-        <v>0.03346808665766354</v>
+        <v>0.685146969590908</v>
       </c>
       <c r="I4" t="n">
-        <v>0.03346808665766354</v>
+        <v>0.685146969590908</v>
       </c>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="n">
-        <v>8.390996233542648</v>
+        <v>2.705445498824014</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>[0.482255471366031, 16.299736995719265]</t>
+          <t>[-5.6178676741802, 11.028758671828228]</t>
         </is>
       </c>
       <c r="N4" t="n">
-        <v>0.03807575754993731</v>
+        <v>0.5160108772910506</v>
       </c>
       <c r="O4" t="n">
-        <v>0.03807575754993731</v>
+        <v>0.5160108772910506</v>
       </c>
       <c r="P4" t="n">
-        <v>-2.691895206679543</v>
+        <v>-2.440316215401081</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>[-3.912053314380083, -1.471737098979002]</t>
+          <t>[-5.578764131599893, 0.6981317007977319]</t>
         </is>
       </c>
       <c r="R4" t="n">
-        <v>5.714293064129627e-05</v>
+        <v>0.1243366766334186</v>
       </c>
       <c r="S4" t="n">
-        <v>5.714293064129627e-05</v>
+        <v>0.1243366766334186</v>
       </c>
       <c r="T4" t="n">
-        <v>13.97467429825477</v>
+        <v>13.31390983560096</v>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>[9.731081066650166, 18.218267529859375]</t>
+          <t>[8.976784027439454, 17.651035643762462]</t>
         </is>
       </c>
       <c r="V4" t="n">
-        <v>3.578694518502346e-08</v>
+        <v>1.670729383729253e-07</v>
       </c>
       <c r="W4" t="n">
-        <v>3.578694518502346e-08</v>
+        <v>1.670729383729253e-07</v>
       </c>
       <c r="X4" t="n">
-        <v>11.09629629629656</v>
+        <v>9.880600600600809</v>
       </c>
       <c r="Y4" t="n">
-        <v>6.066666666666809</v>
+        <v>-2.826666666666728</v>
       </c>
       <c r="Z4" t="n">
-        <v>16.12592592592631</v>
+        <v>22.58786786786835</v>
       </c>
     </row>
     <row r="5">
@@ -839,69 +839,69 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>25.90000000000061</v>
+        <v>25.44000000000054</v>
       </c>
       <c r="G5" t="n">
         <v>1</v>
       </c>
       <c r="H5" t="n">
-        <v>0.7461128553503159</v>
+        <v>0.5792639175178967</v>
       </c>
       <c r="I5" t="n">
-        <v>0.7461128553503159</v>
+        <v>0.5792639175178967</v>
       </c>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="n">
-        <v>3.473837666229157</v>
+        <v>3.60685295221529</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>[-7.978464739202662, 14.926140071660976]</t>
+          <t>[-4.996576671141851, 12.21028257557243]</t>
         </is>
       </c>
       <c r="N5" t="n">
-        <v>0.5443131683007723</v>
+        <v>0.4029231779525406</v>
       </c>
       <c r="O5" t="n">
-        <v>0.5443131683007723</v>
+        <v>0.4029231779525406</v>
       </c>
       <c r="P5" t="n">
-        <v>3.062974218815274</v>
+        <v>3.075553168379197</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>[-0.0691842226015762, 6.195132660232124]</t>
+          <t>[-0.05660527303765317, 6.207711609796048]</t>
         </is>
       </c>
       <c r="R5" t="n">
-        <v>0.05505678555789828</v>
+        <v>0.05410585083600772</v>
       </c>
       <c r="S5" t="n">
-        <v>0.05505678555789828</v>
+        <v>0.05410585083600772</v>
       </c>
       <c r="T5" t="n">
-        <v>15.09941854159069</v>
+        <v>11.71089497588813</v>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>[8.8380215601801, 21.36081552300128]</t>
+          <t>[6.94378672176752, 16.478003230008742]</t>
         </is>
       </c>
       <c r="V5" t="n">
-        <v>1.478483299477418e-05</v>
+        <v>1.094124295142329e-05</v>
       </c>
       <c r="W5" t="n">
-        <v>1.478483299477418e-05</v>
+        <v>1.094124295142329e-05</v>
       </c>
       <c r="X5" t="n">
-        <v>13.27407407407438</v>
+        <v>12.98738738738766</v>
       </c>
       <c r="Y5" t="n">
-        <v>0.3629629629629729</v>
+        <v>0.3055855855855896</v>
       </c>
       <c r="Z5" t="n">
-        <v>26.18518518518579</v>
+        <v>25.66918918918973</v>
       </c>
     </row>
     <row r="6">
@@ -909,7 +909,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -925,69 +925,69 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>25.90000000000061</v>
+        <v>25.44000000000054</v>
       </c>
       <c r="G6" t="n">
         <v>1</v>
       </c>
       <c r="H6" t="n">
-        <v>0.02415751538690469</v>
+        <v>0.6310789407267717</v>
       </c>
       <c r="I6" t="n">
-        <v>0.02415751538690469</v>
+        <v>0.6310789407267717</v>
       </c>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
-        <v>8.716902454582826</v>
+        <v>3.621924763655511</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>[0.42150355132564954, 17.012301357840002]</t>
+          <t>[-6.100139949392051, 13.343989476703072]</t>
         </is>
       </c>
       <c r="N6" t="n">
-        <v>0.03987110631770507</v>
+        <v>0.4569507630471923</v>
       </c>
       <c r="O6" t="n">
-        <v>0.03987110631770507</v>
+        <v>0.4569507630471923</v>
       </c>
       <c r="P6" t="n">
-        <v>-2.415158316273234</v>
+        <v>1.327079178993888</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>[-3.2327900379282353, -1.597526594618233]</t>
+          <t>[-1.7925003128590395, 4.446658670846815]</t>
         </is>
       </c>
       <c r="R6" t="n">
-        <v>3.712347265150129e-07</v>
+        <v>0.3960920118589064</v>
       </c>
       <c r="S6" t="n">
-        <v>3.712347265150129e-07</v>
+        <v>0.3960920118589064</v>
       </c>
       <c r="T6" t="n">
-        <v>10.96374143501303</v>
+        <v>14.55996050568411</v>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>[6.703331061056534, 15.224151808969527]</t>
+          <t>[9.108424246292277, 20.01149676507595]</t>
         </is>
       </c>
       <c r="V6" t="n">
-        <v>4.98839823870334e-06</v>
+        <v>2.57752834631475e-06</v>
       </c>
       <c r="W6" t="n">
-        <v>4.98839823870334e-06</v>
+        <v>2.57752834631475e-06</v>
       </c>
       <c r="X6" t="n">
-        <v>9.955555555555788</v>
+        <v>20.06678678678721</v>
       </c>
       <c r="Y6" t="n">
-        <v>6.585185185185339</v>
+        <v>7.435915915916073</v>
       </c>
       <c r="Z6" t="n">
-        <v>13.32592592592624</v>
+        <v>32.69765765765834</v>
       </c>
     </row>
     <row r="7">
@@ -1011,69 +1011,69 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>25.90000000000061</v>
+        <v>25.44000000000054</v>
       </c>
       <c r="G7" t="n">
         <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>0.8774196168228243</v>
+        <v>0.5577204422470016</v>
       </c>
       <c r="I7" t="n">
-        <v>0.8774196168228243</v>
+        <v>0.5577204422470016</v>
       </c>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
-        <v>1.426362424199727</v>
+        <v>3.531420926326949</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>[-6.373411905281621, 9.226136753681075]</t>
+          <t>[-5.294677906925993, 12.35751975957989]</t>
         </is>
       </c>
       <c r="N7" t="n">
-        <v>0.7143589878559684</v>
+        <v>0.4245586782038973</v>
       </c>
       <c r="O7" t="n">
-        <v>0.7143589878559684</v>
+        <v>0.4245586782038973</v>
       </c>
       <c r="P7" t="n">
-        <v>1.415131825941349</v>
+        <v>1.754763464167273</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>[-1.7170266154755014, 4.547290267358199]</t>
+          <t>[-1.3836844520315408, 4.893211380366087]</t>
         </is>
       </c>
       <c r="R7" t="n">
-        <v>0.3676781992489462</v>
+        <v>0.2660838381905248</v>
       </c>
       <c r="S7" t="n">
-        <v>0.3676781992489462</v>
+        <v>0.2660838381905248</v>
       </c>
       <c r="T7" t="n">
-        <v>12.11106154980907</v>
+        <v>12.96918667346302</v>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>[8.035293010432387, 16.18683008918575]</t>
+          <t>[8.199002882421091, 17.739370464504944]</t>
         </is>
       </c>
       <c r="V7" t="n">
-        <v>3.288127921052819e-07</v>
+        <v>1.858814357103e-06</v>
       </c>
       <c r="W7" t="n">
-        <v>3.288127921052819e-07</v>
+        <v>1.858814357103e-06</v>
       </c>
       <c r="X7" t="n">
-        <v>20.06666666666714</v>
+        <v>18.33513513513552</v>
       </c>
       <c r="Y7" t="n">
-        <v>7.155555555555727</v>
+        <v>5.627867867867975</v>
       </c>
       <c r="Z7" t="n">
-        <v>32.97777777777855</v>
+        <v>31.04240240240306</v>
       </c>
     </row>
     <row r="8">
@@ -1097,69 +1097,69 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>25.90000000000061</v>
+        <v>25.44000000000054</v>
       </c>
       <c r="G8" t="n">
         <v>1</v>
       </c>
       <c r="H8" t="n">
-        <v>0.2245481879631689</v>
+        <v>0.3372912873424843</v>
       </c>
       <c r="I8" t="n">
-        <v>0.2245481879631689</v>
+        <v>0.3372912873424843</v>
       </c>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="n">
-        <v>6.189580404441582</v>
+        <v>6.087476043366884</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>[-3.1363356976994705, 15.515496506582634]</t>
+          <t>[-5.050214139196054, 17.225166225929822]</t>
         </is>
       </c>
       <c r="N8" t="n">
-        <v>0.1880222603273887</v>
+        <v>0.2768204488455563</v>
       </c>
       <c r="O8" t="n">
-        <v>0.1880222603273887</v>
+        <v>0.2768204488455563</v>
       </c>
       <c r="P8" t="n">
-        <v>1.440289725069195</v>
+        <v>2.660447832769735</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>[-1.484316048542925, 4.364895498681315]</t>
+          <t>[-0.4717106086471148, 5.792606274186586]</t>
         </is>
       </c>
       <c r="R8" t="n">
-        <v>0.3265540952506989</v>
+        <v>0.09400920657929124</v>
       </c>
       <c r="S8" t="n">
-        <v>0.3265540952506989</v>
+        <v>0.09400920657929124</v>
       </c>
       <c r="T8" t="n">
-        <v>12.30314708855514</v>
+        <v>15.43622985443406</v>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>[7.134651941335143, 17.471642235775136]</t>
+          <t>[9.645225309607612, 21.22723439926051]</t>
         </is>
       </c>
       <c r="V8" t="n">
-        <v>1.818195958946944e-05</v>
+        <v>2.671135852505557e-06</v>
       </c>
       <c r="W8" t="n">
-        <v>1.818195958946944e-05</v>
+        <v>2.671135852505557e-06</v>
       </c>
       <c r="X8" t="n">
-        <v>19.96296296296343</v>
+        <v>14.66810810810842</v>
       </c>
       <c r="Y8" t="n">
-        <v>7.907407407407591</v>
+        <v>1.986306306306348</v>
       </c>
       <c r="Z8" t="n">
-        <v>32.01851851851927</v>
+        <v>27.34990990991049</v>
       </c>
     </row>
     <row r="9">
@@ -1183,69 +1183,69 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>25.90000000000061</v>
+        <v>25.44000000000054</v>
       </c>
       <c r="G9" t="n">
         <v>1</v>
       </c>
       <c r="H9" t="n">
-        <v>0.5474413191133906</v>
+        <v>0.1754947065368038</v>
       </c>
       <c r="I9" t="n">
-        <v>0.5474413191133906</v>
+        <v>0.1754947065368038</v>
       </c>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="n">
-        <v>3.517274800936037</v>
+        <v>5.877368564407428</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>[-4.505574072621307, 11.54012367449338]</t>
+          <t>[-2.5327236741344183, 14.287460802949274]</t>
         </is>
       </c>
       <c r="N9" t="n">
-        <v>0.3819305968478695</v>
+        <v>0.1661347060021945</v>
       </c>
       <c r="O9" t="n">
-        <v>0.3819305968478695</v>
+        <v>0.1661347060021945</v>
       </c>
       <c r="P9" t="n">
-        <v>1.427710775505271</v>
+        <v>2.496921488438735</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>[-1.6918687163476571, 4.547290267358199]</t>
+          <t>[-0.6163685286322318, 5.610211505509701]</t>
         </is>
       </c>
       <c r="R9" t="n">
-        <v>0.3615606012747743</v>
+        <v>0.1132251849127761</v>
       </c>
       <c r="S9" t="n">
-        <v>0.3615606012747743</v>
+        <v>0.1132251849127761</v>
       </c>
       <c r="T9" t="n">
-        <v>10.70035290139143</v>
+        <v>12.63041649094385</v>
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>[6.031583375596672, 15.369122427186191]</t>
+          <t>[8.20233270475568, 17.058500277132026]</t>
         </is>
       </c>
       <c r="V9" t="n">
-        <v>3.263074206505401e-05</v>
+        <v>7.456168114039485e-07</v>
       </c>
       <c r="W9" t="n">
-        <v>3.263074206505401e-05</v>
+        <v>7.456168114039485e-07</v>
       </c>
       <c r="X9" t="n">
-        <v>20.01481481481529</v>
+        <v>15.33021021021053</v>
       </c>
       <c r="Y9" t="n">
-        <v>7.155555555555724</v>
+        <v>2.72480480480486</v>
       </c>
       <c r="Z9" t="n">
-        <v>32.87407407407485</v>
+        <v>27.93561561561621</v>
       </c>
     </row>
     <row r="10">
@@ -1269,69 +1269,69 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>25.90000000000061</v>
+        <v>25.44000000000054</v>
       </c>
       <c r="G10" t="n">
         <v>1</v>
       </c>
       <c r="H10" t="n">
-        <v>0.2860920374062257</v>
+        <v>0.4313415143886604</v>
       </c>
       <c r="I10" t="n">
-        <v>0.2860920374062257</v>
+        <v>0.4313415143886604</v>
       </c>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="n">
-        <v>5.837339816869795</v>
+        <v>4.176269723898042</v>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>[-4.515231064989393, 16.189910698728983]</t>
+          <t>[-4.476771708474028, 12.829311156270112]</t>
         </is>
       </c>
       <c r="N10" t="n">
-        <v>0.2621111322914629</v>
+        <v>0.3362076880068421</v>
       </c>
       <c r="O10" t="n">
-        <v>0.2621111322914629</v>
+        <v>0.3362076880068421</v>
       </c>
       <c r="P10" t="n">
-        <v>2.459184639746965</v>
+        <v>1.893131909370426</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>[-0.6603948521059637, 5.578764131599893]</t>
+          <t>[-1.2264475824825007, 5.012711401223354]</t>
         </is>
       </c>
       <c r="R10" t="n">
-        <v>0.1193497585506824</v>
+        <v>0.2279698117569826</v>
       </c>
       <c r="S10" t="n">
-        <v>0.1193497585506824</v>
+        <v>0.2279698117569826</v>
       </c>
       <c r="T10" t="n">
-        <v>14.78384563801456</v>
+        <v>13.6470284482903</v>
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>[9.50614593414403, 20.061545341885083]</t>
+          <t>[8.95961915259827, 18.33443774398232]</t>
         </is>
       </c>
       <c r="V10" t="n">
-        <v>1.05864696475777e-06</v>
+        <v>4.969868243609454e-07</v>
       </c>
       <c r="W10" t="n">
-        <v>1.05864696475777e-06</v>
+        <v>4.969868243609454e-07</v>
       </c>
       <c r="X10" t="n">
-        <v>15.76296296296334</v>
+        <v>17.77489489489527</v>
       </c>
       <c r="Y10" t="n">
-        <v>2.903703703703769</v>
+        <v>5.144024024024134</v>
       </c>
       <c r="Z10" t="n">
-        <v>28.6222222222229</v>
+        <v>30.4057657657664</v>
       </c>
     </row>
     <row r="11">
@@ -1355,69 +1355,69 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>25.90000000000061</v>
+        <v>25.44000000000054</v>
       </c>
       <c r="G11" t="n">
         <v>1</v>
       </c>
       <c r="H11" t="n">
-        <v>0.3952989349268407</v>
+        <v>0.004856517001170735</v>
       </c>
       <c r="I11" t="n">
-        <v>0.3952989349268407</v>
+        <v>0.004856517001170735</v>
       </c>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="n">
-        <v>5.203747314701389</v>
+        <v>11.55365000937271</v>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>[-4.36039838231192, 14.767893011714698]</t>
+          <t>[2.6460995927989934, 20.461200425946423]</t>
         </is>
       </c>
       <c r="N11" t="n">
-        <v>0.2789740274945711</v>
+        <v>0.01217746664228203</v>
       </c>
       <c r="O11" t="n">
-        <v>0.2789740274945711</v>
+        <v>0.01217746664228203</v>
       </c>
       <c r="P11" t="n">
-        <v>0.06918422260157708</v>
+        <v>0.6226580034141929</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>[-2.9749215718678124, 3.1132900170709665]</t>
+          <t>[-0.08176317216550189, 1.3270791789938876]</t>
         </is>
       </c>
       <c r="R11" t="n">
-        <v>0.9636920622196941</v>
+        <v>0.0817753030844921</v>
       </c>
       <c r="S11" t="n">
-        <v>0.9636920622196941</v>
+        <v>0.0817753030844921</v>
       </c>
       <c r="T11" t="n">
-        <v>14.62795530512144</v>
+        <v>17.18196973362669</v>
       </c>
       <c r="U11" t="inlineStr">
         <is>
-          <t>[9.434249454154717, 19.82166115608816]</t>
+          <t>[12.536025994049115, 21.82791347320426]</t>
         </is>
       </c>
       <c r="V11" t="n">
-        <v>9.534318878845482e-07</v>
+        <v>2.212366956300116e-09</v>
       </c>
       <c r="W11" t="n">
-        <v>9.534318878845482e-07</v>
+        <v>2.212366956300116e-09</v>
       </c>
       <c r="X11" t="n">
-        <v>25.61481481481542</v>
+        <v>22.91891891891941</v>
       </c>
       <c r="Y11" t="n">
-        <v>13.06666666666697</v>
+        <v>20.06678678678721</v>
       </c>
       <c r="Z11" t="n">
-        <v>38.16296296296386</v>
+        <v>25.7710510510516</v>
       </c>
     </row>
     <row r="12">
@@ -1441,69 +1441,69 @@
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>22.09000000000001</v>
+        <v>23.83000000000029</v>
       </c>
       <c r="G12" t="n">
         <v>1</v>
       </c>
       <c r="H12" t="n">
-        <v>0.1176438721496067</v>
+        <v>0.2034226304259059</v>
       </c>
       <c r="I12" t="n">
-        <v>0.1176438721496067</v>
+        <v>0.2034226304259059</v>
       </c>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="n">
-        <v>8.50351176146474</v>
+        <v>5.306687189857751</v>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>[-2.2391386164881375, 19.246162139417617]</t>
+          <t>[-2.6983269396421843, 13.311701319357686]</t>
         </is>
       </c>
       <c r="N12" t="n">
-        <v>0.117870459871102</v>
+        <v>0.18852942683277</v>
       </c>
       <c r="O12" t="n">
-        <v>0.117870459871102</v>
+        <v>0.18852942683277</v>
       </c>
       <c r="P12" t="n">
-        <v>0.8490790955648091</v>
+        <v>1.050342288587577</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>[-2.283079345852042, 3.98123753698166]</t>
+          <t>[-1.9434477076261203, 4.044132284801275]</t>
         </is>
       </c>
       <c r="R12" t="n">
-        <v>0.5877682843651644</v>
+        <v>0.4834402572290384</v>
       </c>
       <c r="S12" t="n">
-        <v>0.5877682843651644</v>
+        <v>0.4834402572290384</v>
       </c>
       <c r="T12" t="n">
-        <v>14.35726875570647</v>
+        <v>10.10477764595645</v>
       </c>
       <c r="U12" t="inlineStr">
         <is>
-          <t>[8.733322742890682, 19.981214768522264]</t>
+          <t>[5.951388905754269, 14.258166386158628]</t>
         </is>
       </c>
       <c r="V12" t="n">
-        <v>5.729556374678424e-06</v>
+        <v>1.281939455655134e-05</v>
       </c>
       <c r="W12" t="n">
-        <v>5.729556374678424e-06</v>
+        <v>1.281939455655134e-05</v>
       </c>
       <c r="X12" t="n">
-        <v>19.10486486486488</v>
+        <v>19.84640640640665</v>
       </c>
       <c r="Y12" t="n">
-        <v>8.093033033033036</v>
+        <v>8.491971971972074</v>
       </c>
       <c r="Z12" t="n">
-        <v>30.11669669669671</v>
+        <v>31.20084084084122</v>
       </c>
     </row>
     <row r="13">
@@ -1527,69 +1527,69 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>22.09000000000001</v>
+        <v>23.83000000000029</v>
       </c>
       <c r="G13" t="n">
         <v>1</v>
       </c>
       <c r="H13" t="n">
-        <v>0.2142729409122595</v>
+        <v>0.5953927806545978</v>
       </c>
       <c r="I13" t="n">
-        <v>0.2142729409122595</v>
+        <v>0.5953927806545978</v>
       </c>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="n">
-        <v>7.41307582519355</v>
+        <v>3.553642211470798</v>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>[-3.8466569905915087, 18.67280864097861]</t>
+          <t>[-5.568387001572248, 12.675671424513844]</t>
         </is>
       </c>
       <c r="N13" t="n">
-        <v>0.1915226634912857</v>
+        <v>0.4367827163652782</v>
       </c>
       <c r="O13" t="n">
-        <v>0.1915226634912857</v>
+        <v>0.4367827163652782</v>
       </c>
       <c r="P13" t="n">
-        <v>1.01260543989581</v>
+        <v>0.2956053147521924</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>[-1.9308687580621937, 3.956079637853814]</t>
+          <t>[-2.84284260144662, 3.434053230951005]</t>
         </is>
       </c>
       <c r="R13" t="n">
-        <v>0.4919417313057886</v>
+        <v>0.8503933308383009</v>
       </c>
       <c r="S13" t="n">
-        <v>0.4919417313057886</v>
+        <v>0.8503933308383009</v>
       </c>
       <c r="T13" t="n">
-        <v>15.25561905862242</v>
+        <v>13.30895136378552</v>
       </c>
       <c r="U13" t="inlineStr">
         <is>
-          <t>[9.49045768473902, 21.020780432505823]</t>
+          <t>[8.358703258545813, 18.259199469025223]</t>
         </is>
       </c>
       <c r="V13" t="n">
-        <v>3.047042815396139e-06</v>
+        <v>2.284412635722433e-06</v>
       </c>
       <c r="W13" t="n">
-        <v>3.047042815396139e-06</v>
+        <v>2.284412635722433e-06</v>
       </c>
       <c r="X13" t="n">
-        <v>18.52994994994996</v>
+        <v>22.70886886886914</v>
       </c>
       <c r="Y13" t="n">
-        <v>8.181481481481486</v>
+        <v>10.80579579579593</v>
       </c>
       <c r="Z13" t="n">
-        <v>28.87841841841843</v>
+        <v>34.61194194194236</v>
       </c>
     </row>
     <row r="14">
@@ -1613,69 +1613,69 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>22.09000000000001</v>
+        <v>23.83000000000029</v>
       </c>
       <c r="G14" t="n">
         <v>1</v>
       </c>
       <c r="H14" t="n">
-        <v>0.186637761332394</v>
+        <v>0.5236522608445924</v>
       </c>
       <c r="I14" t="n">
-        <v>0.186637761332394</v>
+        <v>0.5236522608445924</v>
       </c>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="n">
-        <v>6.974937114489418</v>
+        <v>4.804189635164084</v>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>[-3.0430451750394063, 16.99291940401824]</t>
+          <t>[-5.970566989956934, 15.578946260285102]</t>
         </is>
       </c>
       <c r="N14" t="n">
-        <v>0.1676859687035428</v>
+        <v>0.3739455455358058</v>
       </c>
       <c r="O14" t="n">
-        <v>0.1676859687035428</v>
+        <v>0.3739455455358058</v>
       </c>
       <c r="P14" t="n">
-        <v>0.9748685912040393</v>
+        <v>-0.2641579408423853</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>[-2.1572898502128126, 4.107027032620891]</t>
+          <t>[-3.37115848313139, 2.8428426014466193]</t>
         </is>
       </c>
       <c r="R14" t="n">
-        <v>0.5339058693542738</v>
+        <v>0.8648031004341312</v>
       </c>
       <c r="S14" t="n">
-        <v>0.5339058693542738</v>
+        <v>0.8648031004341312</v>
       </c>
       <c r="T14" t="n">
-        <v>16.1198670416683</v>
+        <v>17.36337405668625</v>
       </c>
       <c r="U14" t="inlineStr">
         <is>
-          <t>[10.91777802524439, 21.32195605809222]</t>
+          <t>[11.381780322012332, 23.344967791360162]</t>
         </is>
       </c>
       <c r="V14" t="n">
-        <v>1.368143907054531e-07</v>
+        <v>5.273211449718929e-07</v>
       </c>
       <c r="W14" t="n">
-        <v>1.368143907054531e-07</v>
+        <v>5.273211449718929e-07</v>
       </c>
       <c r="X14" t="n">
-        <v>18.66262262262264</v>
+        <v>1.001861861861876</v>
       </c>
       <c r="Y14" t="n">
-        <v>7.650790790790792</v>
+        <v>-10.78194194194207</v>
       </c>
       <c r="Z14" t="n">
-        <v>29.67445445445448</v>
+        <v>12.78566566566582</v>
       </c>
     </row>
     <row r="15">
@@ -1699,69 +1699,69 @@
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>22.09000000000001</v>
+        <v>23.83000000000029</v>
       </c>
       <c r="G15" t="n">
         <v>1</v>
       </c>
       <c r="H15" t="n">
-        <v>0.8610828377224516</v>
+        <v>0.3844111349071889</v>
       </c>
       <c r="I15" t="n">
-        <v>0.8610828377224516</v>
+        <v>0.3844111349071889</v>
       </c>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="n">
-        <v>1.938238242768797</v>
+        <v>4.516701678824751</v>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>[-8.123056854938042, 11.999533340475637]</t>
+          <t>[-3.9099492763261106, 12.943352633975614]</t>
         </is>
       </c>
       <c r="N15" t="n">
-        <v>0.6998432996689634</v>
+        <v>0.2860890847507176</v>
       </c>
       <c r="O15" t="n">
-        <v>0.6998432996689634</v>
+        <v>0.2860890847507176</v>
       </c>
       <c r="P15" t="n">
-        <v>2.597553084950119</v>
+        <v>1.33965812855781</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>[-0.5408948312486928, 5.7360010011489315]</t>
+          <t>[-1.7673424137311944, 4.446658670846814]</t>
         </is>
       </c>
       <c r="R15" t="n">
-        <v>0.1024638816272672</v>
+        <v>0.3897674809659779</v>
       </c>
       <c r="S15" t="n">
-        <v>0.1024638816272672</v>
+        <v>0.3897674809659779</v>
       </c>
       <c r="T15" t="n">
-        <v>15.97715662195395</v>
+        <v>11.90811274712399</v>
       </c>
       <c r="U15" t="inlineStr">
         <is>
-          <t>[10.79738121681667, 21.156932027091223]</t>
+          <t>[7.319704907560336, 16.496520586687645]</t>
         </is>
       </c>
       <c r="V15" t="n">
-        <v>1.508927998106202e-07</v>
+        <v>4.302964197400172e-06</v>
       </c>
       <c r="W15" t="n">
-        <v>1.508927998106202e-07</v>
+        <v>4.302964197400172e-06</v>
       </c>
       <c r="X15" t="n">
-        <v>12.95769769769771</v>
+        <v>18.74912912912935</v>
       </c>
       <c r="Y15" t="n">
-        <v>1.923753753753754</v>
+        <v>6.965325325325411</v>
       </c>
       <c r="Z15" t="n">
-        <v>23.99164164164166</v>
+        <v>30.5329329329333</v>
       </c>
     </row>
   </sheetData>

--- a/src/analysis_examples/circadipy/results_circadipy/sawtooth_0.1/cosinor_per_day_fixed_period_8_sawtooth_0.1_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/sawtooth_0.1/cosinor_per_day_fixed_period_8_sawtooth_0.1_.xlsx
@@ -581,69 +581,69 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>25.44000000000054</v>
+        <v>25.99000000000062</v>
       </c>
       <c r="G2" t="n">
         <v>1</v>
       </c>
       <c r="H2" t="n">
-        <v>0.4285337843210271</v>
+        <v>0.2162467634980856</v>
       </c>
       <c r="I2" t="n">
-        <v>0.4285337843210271</v>
+        <v>0.2162467634980856</v>
       </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="n">
-        <v>4.928781650389169</v>
+        <v>5.962064310802001</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>[-5.372087361693181, 15.229650662471519]</t>
+          <t>[-3.37721609858888, 15.301344720192882]</t>
         </is>
       </c>
       <c r="N2" t="n">
-        <v>0.3403405815119336</v>
+        <v>0.2050988359477175</v>
       </c>
       <c r="O2" t="n">
-        <v>0.3403405815119336</v>
+        <v>0.2050988359477175</v>
       </c>
       <c r="P2" t="n">
-        <v>-2.264210921506157</v>
+        <v>-1.283052855520156</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>[-5.402658837704969, 0.8742369946926551]</t>
+          <t>[-4.320869175207584, 1.7547634641672722]</t>
         </is>
       </c>
       <c r="R2" t="n">
-        <v>0.1531452711389532</v>
+        <v>0.3994525884621769</v>
       </c>
       <c r="S2" t="n">
-        <v>0.1531452711389532</v>
+        <v>0.3994525884621769</v>
       </c>
       <c r="T2" t="n">
-        <v>13.88944781721273</v>
+        <v>13.32881814501717</v>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>[8.584649506690738, 19.19424612773473]</t>
+          <t>[8.338042315998702, 18.319593974035637]</t>
         </is>
       </c>
       <c r="V2" t="n">
-        <v>3.681807224209521e-06</v>
+        <v>2.579438316718807e-06</v>
       </c>
       <c r="W2" t="n">
-        <v>3.681807224209521e-06</v>
+        <v>2.579438316718807e-06</v>
       </c>
       <c r="X2" t="n">
-        <v>9.167567567567758</v>
+        <v>5.307267267267395</v>
       </c>
       <c r="Y2" t="n">
-        <v>-3.539699699699776</v>
+        <v>-7.258468468468644</v>
       </c>
       <c r="Z2" t="n">
-        <v>21.87483483483529</v>
+        <v>17.87300300300343</v>
       </c>
     </row>
     <row r="3">
@@ -667,69 +667,69 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>25.44000000000054</v>
+        <v>25.99000000000062</v>
       </c>
       <c r="G3" t="n">
         <v>1</v>
       </c>
       <c r="H3" t="n">
-        <v>0.4612066091128305</v>
+        <v>0.3201100525402834</v>
       </c>
       <c r="I3" t="n">
-        <v>0.4612066091128305</v>
+        <v>0.3201100525402834</v>
       </c>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
-        <v>4.523917963335867</v>
+        <v>4.625559069688562</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>[-5.191873103565193, 14.239709030236927]</t>
+          <t>[-2.956871432439055, 12.207989571816178]</t>
         </is>
       </c>
       <c r="N3" t="n">
-        <v>0.3533446242884457</v>
+        <v>0.2255801014086631</v>
       </c>
       <c r="O3" t="n">
-        <v>0.3533446242884457</v>
+        <v>0.2255801014086631</v>
       </c>
       <c r="P3" t="n">
-        <v>-2.037789829355541</v>
+        <v>-1.434000250287233</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>[-5.169948270772392, 1.0943686120613103]</t>
+          <t>[-4.572448166486046, 1.7044476659115801]</t>
         </is>
       </c>
       <c r="R3" t="n">
-        <v>0.1967163300780008</v>
+        <v>0.3623380203440592</v>
       </c>
       <c r="S3" t="n">
-        <v>0.1967163300780008</v>
+        <v>0.3623380203440592</v>
       </c>
       <c r="T3" t="n">
-        <v>13.19861022822806</v>
+        <v>11.74907234221643</v>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>[8.0336694381879, 18.36355101826823]</t>
+          <t>[7.253375338904448, 16.24476934552841]</t>
         </is>
       </c>
       <c r="V3" t="n">
-        <v>5.632148043721585e-06</v>
+        <v>3.805501312958981e-06</v>
       </c>
       <c r="W3" t="n">
-        <v>5.632148043721585e-06</v>
+        <v>3.805501312958981e-06</v>
       </c>
       <c r="X3" t="n">
-        <v>8.250810810810982</v>
+        <v>5.931651651651794</v>
       </c>
       <c r="Y3" t="n">
-        <v>-4.430990990991088</v>
+        <v>-7.050340340340512</v>
       </c>
       <c r="Z3" t="n">
-        <v>20.93261261261305</v>
+        <v>18.9136436436441</v>
       </c>
     </row>
     <row r="4">
@@ -753,69 +753,69 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>25.44000000000054</v>
+        <v>25.99000000000062</v>
       </c>
       <c r="G4" t="n">
         <v>1</v>
       </c>
       <c r="H4" t="n">
-        <v>0.685146969590908</v>
+        <v>0.4596947766835285</v>
       </c>
       <c r="I4" t="n">
-        <v>0.685146969590908</v>
+        <v>0.4596947766835285</v>
       </c>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="n">
-        <v>2.705445498824014</v>
+        <v>4.021370586709072</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>[-5.6178676741802, 11.028758671828228]</t>
+          <t>[-4.659126009609086, 12.701867183027229]</t>
         </is>
       </c>
       <c r="N4" t="n">
-        <v>0.5160108772910506</v>
+        <v>0.3557667329551801</v>
       </c>
       <c r="O4" t="n">
-        <v>0.5160108772910506</v>
+        <v>0.3557667329551801</v>
       </c>
       <c r="P4" t="n">
-        <v>-2.440316215401081</v>
+        <v>-2.415158316273234</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>[-5.578764131599893, 0.6981317007977319]</t>
+          <t>[-5.541027282908123, 0.7107106503616549]</t>
         </is>
       </c>
       <c r="R4" t="n">
-        <v>0.1243366766334186</v>
+        <v>0.126673817201429</v>
       </c>
       <c r="S4" t="n">
-        <v>0.1243366766334186</v>
+        <v>0.126673817201429</v>
       </c>
       <c r="T4" t="n">
-        <v>13.31390983560096</v>
+        <v>11.34543579428943</v>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>[8.976784027439454, 17.651035643762462]</t>
+          <t>[6.907908904978335, 15.782962683600516]</t>
         </is>
       </c>
       <c r="V4" t="n">
-        <v>1.670729383729253e-07</v>
+        <v>5.583748079240891e-06</v>
       </c>
       <c r="W4" t="n">
-        <v>1.670729383729253e-07</v>
+        <v>5.583748079240891e-06</v>
       </c>
       <c r="X4" t="n">
-        <v>9.880600600600809</v>
+        <v>9.990150150150388</v>
       </c>
       <c r="Y4" t="n">
-        <v>-2.826666666666728</v>
+        <v>-2.939809809809882</v>
       </c>
       <c r="Z4" t="n">
-        <v>22.58786786786835</v>
+        <v>22.92011011011066</v>
       </c>
     </row>
     <row r="5">
@@ -839,69 +839,69 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>25.44000000000054</v>
+        <v>25.99000000000062</v>
       </c>
       <c r="G5" t="n">
         <v>1</v>
       </c>
       <c r="H5" t="n">
-        <v>0.5792639175178967</v>
+        <v>0.196594957179431</v>
       </c>
       <c r="I5" t="n">
-        <v>0.5792639175178967</v>
+        <v>0.196594957179431</v>
       </c>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="n">
-        <v>3.60685295221529</v>
+        <v>6.040270678809369</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>[-4.996576671141851, 12.21028257557243]</t>
+          <t>[-2.041323111970634, 14.121864469589372]</t>
         </is>
       </c>
       <c r="N5" t="n">
-        <v>0.4029231779525406</v>
+        <v>0.1392184053395789</v>
       </c>
       <c r="O5" t="n">
-        <v>0.4029231779525406</v>
+        <v>0.1392184053395789</v>
       </c>
       <c r="P5" t="n">
-        <v>3.075553168379197</v>
+        <v>-2.981211046649773</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>[-0.05660527303765317, 6.207711609796048]</t>
+          <t>[-5.358632514231239, -0.6037895790683079]</t>
         </is>
       </c>
       <c r="R5" t="n">
-        <v>0.05410585083600772</v>
+        <v>0.01513973501412247</v>
       </c>
       <c r="S5" t="n">
-        <v>0.05410585083600772</v>
+        <v>0.01513973501412247</v>
       </c>
       <c r="T5" t="n">
-        <v>11.71089497588813</v>
+        <v>12.52964967524165</v>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>[6.94378672176752, 16.478003230008742]</t>
+          <t>[8.034751613847845, 17.024547736635462]</t>
         </is>
       </c>
       <c r="V5" t="n">
-        <v>1.094124295142329e-05</v>
+        <v>1.16242126058097e-06</v>
       </c>
       <c r="W5" t="n">
-        <v>1.094124295142329e-05</v>
+        <v>1.16242126058097e-06</v>
       </c>
       <c r="X5" t="n">
-        <v>12.98738738738766</v>
+        <v>12.33159159159189</v>
       </c>
       <c r="Y5" t="n">
-        <v>0.3055855855855896</v>
+        <v>2.497537537537596</v>
       </c>
       <c r="Z5" t="n">
-        <v>25.66918918918973</v>
+        <v>22.16564564564618</v>
       </c>
     </row>
     <row r="6">
@@ -925,69 +925,69 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>25.44000000000054</v>
+        <v>25.99000000000062</v>
       </c>
       <c r="G6" t="n">
         <v>1</v>
       </c>
       <c r="H6" t="n">
-        <v>0.6310789407267717</v>
+        <v>0.5393817719494942</v>
       </c>
       <c r="I6" t="n">
-        <v>0.6310789407267717</v>
+        <v>0.5393817719494942</v>
       </c>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
-        <v>3.621924763655511</v>
+        <v>4.447249150221295</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>[-6.100139949392051, 13.343989476703072]</t>
+          <t>[-6.52330272609293, 15.417801026535521]</t>
         </is>
       </c>
       <c r="N6" t="n">
-        <v>0.4569507630471923</v>
+        <v>0.4185279210357691</v>
       </c>
       <c r="O6" t="n">
-        <v>0.4569507630471923</v>
+        <v>0.4185279210357691</v>
       </c>
       <c r="P6" t="n">
-        <v>1.327079178993888</v>
+        <v>-2.088105627611234</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>[-1.7925003128590395, 4.446658670846815]</t>
+          <t>[-5.2013956446822, 1.0251843894597323]</t>
         </is>
       </c>
       <c r="R6" t="n">
-        <v>0.3960920118589064</v>
+        <v>0.183489771671743</v>
       </c>
       <c r="S6" t="n">
-        <v>0.3960920118589064</v>
+        <v>0.183489771671743</v>
       </c>
       <c r="T6" t="n">
-        <v>14.55996050568411</v>
+        <v>16.48278612318488</v>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>[9.108424246292277, 20.01149676507595]</t>
+          <t>[10.81817467637238, 22.147397569997388]</t>
         </is>
       </c>
       <c r="V6" t="n">
-        <v>2.57752834631475e-06</v>
+        <v>5.026202827274062e-07</v>
       </c>
       <c r="W6" t="n">
-        <v>2.57752834631475e-06</v>
+        <v>5.026202827274062e-07</v>
       </c>
       <c r="X6" t="n">
-        <v>20.06678678678721</v>
+        <v>8.637317317317525</v>
       </c>
       <c r="Y6" t="n">
-        <v>7.435915915916073</v>
+        <v>-4.240610610610712</v>
       </c>
       <c r="Z6" t="n">
-        <v>32.69765765765834</v>
+        <v>21.51524524524576</v>
       </c>
     </row>
     <row r="7">
@@ -1011,69 +1011,69 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>25.44000000000054</v>
+        <v>25.99000000000062</v>
       </c>
       <c r="G7" t="n">
         <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>0.5577204422470016</v>
+        <v>0.6247337551241257</v>
       </c>
       <c r="I7" t="n">
-        <v>0.5577204422470016</v>
+        <v>0.6247337551241257</v>
       </c>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
-        <v>3.531420926326949</v>
+        <v>3.421889581234726</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>[-5.294677906925993, 12.35751975957989]</t>
+          <t>[-6.526020581096519, 13.369799743565972]</t>
         </is>
       </c>
       <c r="N7" t="n">
-        <v>0.4245586782038973</v>
+        <v>0.4919872376037948</v>
       </c>
       <c r="O7" t="n">
-        <v>0.4245586782038973</v>
+        <v>0.4919872376037948</v>
       </c>
       <c r="P7" t="n">
-        <v>1.754763464167273</v>
+        <v>2.383710942363427</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>[-1.3836844520315408, 4.893211380366087]</t>
+          <t>[-0.754736973835386, 5.522158858562239]</t>
         </is>
       </c>
       <c r="R7" t="n">
-        <v>0.2660838381905248</v>
+        <v>0.1330785767356073</v>
       </c>
       <c r="S7" t="n">
-        <v>0.2660838381905248</v>
+        <v>0.1330785767356073</v>
       </c>
       <c r="T7" t="n">
-        <v>12.96918667346302</v>
+        <v>13.96640226626624</v>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>[8.199002882421091, 17.739370464504944]</t>
+          <t>[8.839192384043283, 19.093612148489203]</t>
         </is>
       </c>
       <c r="V7" t="n">
-        <v>1.858814357103e-06</v>
+        <v>1.7943585788327e-06</v>
       </c>
       <c r="W7" t="n">
-        <v>1.858814357103e-06</v>
+        <v>1.7943585788327e-06</v>
       </c>
       <c r="X7" t="n">
-        <v>18.33513513513552</v>
+        <v>16.12992992993032</v>
       </c>
       <c r="Y7" t="n">
-        <v>5.627867867867975</v>
+        <v>3.147937937938012</v>
       </c>
       <c r="Z7" t="n">
-        <v>31.04240240240306</v>
+        <v>29.11192192192262</v>
       </c>
     </row>
     <row r="8">
@@ -1097,69 +1097,69 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>25.44000000000054</v>
+        <v>25.99000000000062</v>
       </c>
       <c r="G8" t="n">
         <v>1</v>
       </c>
       <c r="H8" t="n">
-        <v>0.3372912873424843</v>
+        <v>0.0761623701036902</v>
       </c>
       <c r="I8" t="n">
-        <v>0.3372912873424843</v>
+        <v>0.0761623701036902</v>
       </c>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="n">
-        <v>6.087476043366884</v>
+        <v>6.379673771476213</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>[-5.050214139196054, 17.225166225929822]</t>
+          <t>[-1.0873673533937893, 13.846714896346215]</t>
         </is>
       </c>
       <c r="N8" t="n">
-        <v>0.2768204488455563</v>
+        <v>0.09215623405859796</v>
       </c>
       <c r="O8" t="n">
-        <v>0.2768204488455563</v>
+        <v>0.09215623405859796</v>
       </c>
       <c r="P8" t="n">
-        <v>2.660447832769735</v>
+        <v>1.213868632918579</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>[-0.4717106086471148, 5.792606274186586]</t>
+          <t>[-0.4842895582110396, 2.912026824048197]</t>
         </is>
       </c>
       <c r="R8" t="n">
-        <v>0.09400920657929124</v>
+        <v>0.1568700197021606</v>
       </c>
       <c r="S8" t="n">
-        <v>0.09400920657929124</v>
+        <v>0.1568700197021606</v>
       </c>
       <c r="T8" t="n">
-        <v>15.43622985443406</v>
+        <v>14.82268618797038</v>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>[9.645225309607612, 21.22723439926051]</t>
+          <t>[10.881942066291037, 18.763430309649713]</t>
         </is>
       </c>
       <c r="V8" t="n">
-        <v>2.671135852505557e-06</v>
+        <v>1.438219765503845e-09</v>
       </c>
       <c r="W8" t="n">
-        <v>2.671135852505557e-06</v>
+        <v>1.438219765503845e-09</v>
       </c>
       <c r="X8" t="n">
-        <v>14.66810810810842</v>
+        <v>20.96890890890941</v>
       </c>
       <c r="Y8" t="n">
-        <v>1.986306306306348</v>
+        <v>13.94458458458492</v>
       </c>
       <c r="Z8" t="n">
-        <v>27.34990990991049</v>
+        <v>27.99323323323391</v>
       </c>
     </row>
     <row r="9">
@@ -1183,69 +1183,69 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>25.44000000000054</v>
+        <v>25.99000000000062</v>
       </c>
       <c r="G9" t="n">
         <v>1</v>
       </c>
       <c r="H9" t="n">
-        <v>0.1754947065368038</v>
+        <v>0.1826958984008532</v>
       </c>
       <c r="I9" t="n">
-        <v>0.1754947065368038</v>
+        <v>0.1826958984008532</v>
       </c>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="n">
-        <v>5.877368564407428</v>
+        <v>5.383405466050474</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>[-2.5327236741344183, 14.287460802949274]</t>
+          <t>[-2.569401781674335, 13.336212713775284]</t>
         </is>
       </c>
       <c r="N9" t="n">
-        <v>0.1661347060021945</v>
+        <v>0.1795438685339712</v>
       </c>
       <c r="O9" t="n">
-        <v>0.1661347060021945</v>
+        <v>0.1795438685339712</v>
       </c>
       <c r="P9" t="n">
-        <v>2.496921488438735</v>
+        <v>2.283079345852042</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>[-0.6163685286322318, 5.610211505509701]</t>
+          <t>[-0.8302106712189241, 5.396369362923008]</t>
         </is>
       </c>
       <c r="R9" t="n">
-        <v>0.1132251849127761</v>
+        <v>0.1466378877837335</v>
       </c>
       <c r="S9" t="n">
-        <v>0.1132251849127761</v>
+        <v>0.1466378877837335</v>
       </c>
       <c r="T9" t="n">
-        <v>12.63041649094385</v>
+        <v>10.94936884355227</v>
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>[8.20233270475568, 17.058500277132026]</t>
+          <t>[6.732803862755111, 15.16593382434944]</t>
         </is>
       </c>
       <c r="V9" t="n">
-        <v>7.456168114039485e-07</v>
+        <v>4.259777135473541e-06</v>
       </c>
       <c r="W9" t="n">
-        <v>7.456168114039485e-07</v>
+        <v>4.259777135473541e-06</v>
       </c>
       <c r="X9" t="n">
-        <v>15.33021021021053</v>
+        <v>16.54618618618658</v>
       </c>
       <c r="Y9" t="n">
-        <v>2.72480480480486</v>
+        <v>3.668258258258344</v>
       </c>
       <c r="Z9" t="n">
-        <v>27.93561561561621</v>
+        <v>29.42411411411482</v>
       </c>
     </row>
     <row r="10">
@@ -1269,69 +1269,69 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>25.44000000000054</v>
+        <v>25.99000000000062</v>
       </c>
       <c r="G10" t="n">
         <v>1</v>
       </c>
       <c r="H10" t="n">
-        <v>0.4313415143886604</v>
+        <v>0.01751569395279373</v>
       </c>
       <c r="I10" t="n">
-        <v>0.4313415143886604</v>
+        <v>0.01751569395279373</v>
       </c>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="n">
-        <v>4.176269723898042</v>
+        <v>10.28325040071071</v>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>[-4.476771708474028, 12.829311156270112]</t>
+          <t>[1.1819075241658084, 19.384593277255608]</t>
         </is>
       </c>
       <c r="N10" t="n">
-        <v>0.3362076880068421</v>
+        <v>0.02767781302467243</v>
       </c>
       <c r="O10" t="n">
-        <v>0.3362076880068421</v>
+        <v>0.02767781302467243</v>
       </c>
       <c r="P10" t="n">
-        <v>1.893131909370426</v>
+        <v>1.17613178422681</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>[-1.2264475824825007, 5.012711401223354]</t>
+          <t>[-0.006289474781961957, 2.358553043235581]</t>
         </is>
       </c>
       <c r="R10" t="n">
-        <v>0.2279698117569826</v>
+        <v>0.05117947869423389</v>
       </c>
       <c r="S10" t="n">
-        <v>0.2279698117569826</v>
+        <v>0.05117947869423389</v>
       </c>
       <c r="T10" t="n">
-        <v>13.6470284482903</v>
+        <v>16.22836486607055</v>
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>[8.95961915259827, 18.33443774398232]</t>
+          <t>[11.25281006427883, 21.203919667862277]</t>
         </is>
       </c>
       <c r="V10" t="n">
-        <v>4.969868243609454e-07</v>
+        <v>4.447284607245194e-08</v>
       </c>
       <c r="W10" t="n">
-        <v>4.969868243609454e-07</v>
+        <v>4.447284607245194e-08</v>
       </c>
       <c r="X10" t="n">
-        <v>17.77489489489527</v>
+        <v>21.12500500500551</v>
       </c>
       <c r="Y10" t="n">
-        <v>5.144024024024134</v>
+        <v>16.23399399399438</v>
       </c>
       <c r="Z10" t="n">
-        <v>30.4057657657664</v>
+        <v>26.01601601601664</v>
       </c>
     </row>
     <row r="11">
@@ -1355,69 +1355,69 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>25.44000000000054</v>
+        <v>25.99000000000062</v>
       </c>
       <c r="G11" t="n">
         <v>1</v>
       </c>
       <c r="H11" t="n">
-        <v>0.004856517001170735</v>
+        <v>0.1733558194156484</v>
       </c>
       <c r="I11" t="n">
-        <v>0.004856517001170735</v>
+        <v>0.1733558194156484</v>
       </c>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="n">
-        <v>11.55365000937271</v>
+        <v>6.852308529135826</v>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>[2.6460995927989934, 20.461200425946423]</t>
+          <t>[-1.7749801062651631, 15.479597164536814]</t>
         </is>
       </c>
       <c r="N11" t="n">
-        <v>0.01217746664228203</v>
+        <v>0.1166587879398586</v>
       </c>
       <c r="O11" t="n">
-        <v>0.01217746664228203</v>
+        <v>0.1166587879398586</v>
       </c>
       <c r="P11" t="n">
-        <v>0.6226580034141929</v>
+        <v>-0.02515789912784605</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>[-0.08176317216550189, 1.3270791789938876]</t>
+          <t>[-2.5661057110403114, 2.5157899127846193]</t>
         </is>
       </c>
       <c r="R11" t="n">
-        <v>0.0817753030844921</v>
+        <v>0.9841781058245602</v>
       </c>
       <c r="S11" t="n">
-        <v>0.0817753030844921</v>
+        <v>0.9841781058245602</v>
       </c>
       <c r="T11" t="n">
-        <v>17.18196973362669</v>
+        <v>14.5948522731812</v>
       </c>
       <c r="U11" t="inlineStr">
         <is>
-          <t>[12.536025994049115, 21.82791347320426]</t>
+          <t>[9.646642469833026, 19.543062076529367]</t>
         </is>
       </c>
       <c r="V11" t="n">
-        <v>2.212366956300116e-09</v>
+        <v>3.82445598301473e-07</v>
       </c>
       <c r="W11" t="n">
-        <v>2.212366956300116e-09</v>
+        <v>3.82445598301473e-07</v>
       </c>
       <c r="X11" t="n">
-        <v>22.91891891891941</v>
+        <v>0.1040640640640689</v>
       </c>
       <c r="Y11" t="n">
-        <v>20.06678678678721</v>
+        <v>-10.40640640640665</v>
       </c>
       <c r="Z11" t="n">
-        <v>25.7710510510516</v>
+        <v>10.61453453453479</v>
       </c>
     </row>
     <row r="12">
@@ -1441,69 +1441,69 @@
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>23.83000000000029</v>
+        <v>23.01000000000016</v>
       </c>
       <c r="G12" t="n">
         <v>1</v>
       </c>
       <c r="H12" t="n">
-        <v>0.2034226304259059</v>
+        <v>0.402287536426848</v>
       </c>
       <c r="I12" t="n">
-        <v>0.2034226304259059</v>
+        <v>0.402287536426848</v>
       </c>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="n">
-        <v>5.306687189857751</v>
+        <v>5.169024282921867</v>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>[-2.6983269396421843, 13.311701319357686]</t>
+          <t>[-4.411125126041829, 14.749173691885563]</t>
         </is>
       </c>
       <c r="N12" t="n">
-        <v>0.18852942683277</v>
+        <v>0.2829470473848383</v>
       </c>
       <c r="O12" t="n">
-        <v>0.18852942683277</v>
+        <v>0.2829470473848383</v>
       </c>
       <c r="P12" t="n">
-        <v>1.050342288587577</v>
+        <v>-0.02515789912784605</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>[-1.9434477076261203, 4.044132284801275]</t>
+          <t>[-3.1384479161988117, 3.0881321179431196]</t>
         </is>
       </c>
       <c r="R12" t="n">
-        <v>0.4834402572290384</v>
+        <v>0.9870864851844201</v>
       </c>
       <c r="S12" t="n">
-        <v>0.4834402572290384</v>
+        <v>0.9870864851844201</v>
       </c>
       <c r="T12" t="n">
-        <v>10.10477764595645</v>
+        <v>16.05829341063277</v>
       </c>
       <c r="U12" t="inlineStr">
         <is>
-          <t>[5.951388905754269, 14.258166386158628]</t>
+          <t>[10.557914644456282, 21.558672176809253]</t>
         </is>
       </c>
       <c r="V12" t="n">
-        <v>1.281939455655134e-05</v>
+        <v>4.701826779029972e-07</v>
       </c>
       <c r="W12" t="n">
-        <v>1.281939455655134e-05</v>
+        <v>4.701826779029972e-07</v>
       </c>
       <c r="X12" t="n">
-        <v>19.84640640640665</v>
+        <v>0.09213213213213223</v>
       </c>
       <c r="Y12" t="n">
-        <v>8.491971971972074</v>
+        <v>-11.30921921921929</v>
       </c>
       <c r="Z12" t="n">
-        <v>31.20084084084122</v>
+        <v>11.49348348348356</v>
       </c>
     </row>
     <row r="13">
@@ -1527,69 +1527,69 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>23.83000000000029</v>
+        <v>23.01000000000016</v>
       </c>
       <c r="G13" t="n">
         <v>1</v>
       </c>
       <c r="H13" t="n">
-        <v>0.5953927806545978</v>
+        <v>0.2647570007289791</v>
       </c>
       <c r="I13" t="n">
-        <v>0.5953927806545978</v>
+        <v>0.2647570007289791</v>
       </c>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="n">
-        <v>3.553642211470798</v>
+        <v>5.909999596964312</v>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>[-5.568387001572248, 12.675671424513844]</t>
+          <t>[-3.3247671912390793, 15.144766385167703]</t>
         </is>
       </c>
       <c r="N13" t="n">
-        <v>0.4367827163652782</v>
+        <v>0.203994989205311</v>
       </c>
       <c r="O13" t="n">
-        <v>0.4367827163652782</v>
+        <v>0.203994989205311</v>
       </c>
       <c r="P13" t="n">
-        <v>0.2956053147521924</v>
+        <v>0.3207632138800385</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>[-2.84284260144662, 3.434053230951005]</t>
+          <t>[-2.710763631025428, 3.352290058785505]</t>
         </is>
       </c>
       <c r="R13" t="n">
-        <v>0.8503933308383009</v>
+        <v>0.8322032964049608</v>
       </c>
       <c r="S13" t="n">
-        <v>0.8503933308383009</v>
+        <v>0.8322032964049608</v>
       </c>
       <c r="T13" t="n">
-        <v>13.30895136378552</v>
+        <v>14.48339632176602</v>
       </c>
       <c r="U13" t="inlineStr">
         <is>
-          <t>[8.358703258545813, 18.259199469025223]</t>
+          <t>[9.325126126883571, 19.64166651664846]</t>
         </is>
       </c>
       <c r="V13" t="n">
-        <v>2.284412635722433e-06</v>
+        <v>1.011805107919983e-06</v>
       </c>
       <c r="W13" t="n">
-        <v>2.284412635722433e-06</v>
+        <v>1.011805107919983e-06</v>
       </c>
       <c r="X13" t="n">
-        <v>22.70886886886914</v>
+        <v>21.83531531531547</v>
       </c>
       <c r="Y13" t="n">
-        <v>10.80579579579593</v>
+        <v>10.73339339339346</v>
       </c>
       <c r="Z13" t="n">
-        <v>34.61194194194236</v>
+        <v>32.93723723723747</v>
       </c>
     </row>
     <row r="14">
@@ -1613,69 +1613,69 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>23.83000000000029</v>
+        <v>23.01000000000016</v>
       </c>
       <c r="G14" t="n">
         <v>1</v>
       </c>
       <c r="H14" t="n">
-        <v>0.5236522608445924</v>
+        <v>0.3592247085596594</v>
       </c>
       <c r="I14" t="n">
-        <v>0.5236522608445924</v>
+        <v>0.3592247085596594</v>
       </c>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="n">
-        <v>4.804189635164084</v>
+        <v>5.614467492042849</v>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>[-5.970566989956934, 15.578946260285102]</t>
+          <t>[-4.142672431800291, 15.371607415885988]</t>
         </is>
       </c>
       <c r="N14" t="n">
-        <v>0.3739455455358058</v>
+        <v>0.2525864548643633</v>
       </c>
       <c r="O14" t="n">
-        <v>0.3739455455358058</v>
+        <v>0.2525864548643633</v>
       </c>
       <c r="P14" t="n">
-        <v>-0.2641579408423853</v>
+        <v>-0.01257894956392303</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>[-3.37115848313139, 2.8428426014466193]</t>
+          <t>[-3.144737390980774, 3.119579491852928]</t>
         </is>
       </c>
       <c r="R14" t="n">
-        <v>0.8648031004341312</v>
+        <v>0.9935819206235983</v>
       </c>
       <c r="S14" t="n">
-        <v>0.8648031004341312</v>
+        <v>0.9935819206235983</v>
       </c>
       <c r="T14" t="n">
-        <v>17.36337405668625</v>
+        <v>18.81087488513117</v>
       </c>
       <c r="U14" t="inlineStr">
         <is>
-          <t>[11.381780322012332, 23.344967791360162]</t>
+          <t>[13.175666844729605, 24.446082925532735]</t>
         </is>
       </c>
       <c r="V14" t="n">
-        <v>5.273211449718929e-07</v>
+        <v>2.624508477211407e-08</v>
       </c>
       <c r="W14" t="n">
-        <v>5.273211449718929e-07</v>
+        <v>2.624508477211407e-08</v>
       </c>
       <c r="X14" t="n">
-        <v>1.001861861861876</v>
+        <v>0.04606606606606789</v>
       </c>
       <c r="Y14" t="n">
-        <v>-10.78194194194207</v>
+        <v>-11.42438438438446</v>
       </c>
       <c r="Z14" t="n">
-        <v>12.78566566566582</v>
+        <v>11.5165165165166</v>
       </c>
     </row>
     <row r="15">
@@ -1699,69 +1699,69 @@
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>23.83000000000029</v>
+        <v>23.01000000000016</v>
       </c>
       <c r="G15" t="n">
         <v>1</v>
       </c>
       <c r="H15" t="n">
-        <v>0.3844111349071889</v>
+        <v>0.171942589408638</v>
       </c>
       <c r="I15" t="n">
-        <v>0.3844111349071889</v>
+        <v>0.171942589408638</v>
       </c>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="n">
-        <v>4.516701678824751</v>
+        <v>6.794173617080374</v>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>[-3.9099492763261106, 12.943352633975614]</t>
+          <t>[-2.7314909533383274, 16.319838187499077]</t>
         </is>
       </c>
       <c r="N15" t="n">
-        <v>0.2860890847507176</v>
+        <v>0.1577600658742937</v>
       </c>
       <c r="O15" t="n">
-        <v>0.2860890847507176</v>
+        <v>0.1577600658742937</v>
       </c>
       <c r="P15" t="n">
-        <v>1.33965812855781</v>
+        <v>0.8113422468730391</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>[-1.7673424137311944, 4.446658670846814]</t>
+          <t>[-2.2956582954159654, 3.9183427891620437]</t>
         </is>
       </c>
       <c r="R15" t="n">
-        <v>0.3897674809659779</v>
+        <v>0.6015054441821812</v>
       </c>
       <c r="S15" t="n">
-        <v>0.3897674809659779</v>
+        <v>0.6015054441821812</v>
       </c>
       <c r="T15" t="n">
-        <v>11.90811274712399</v>
+        <v>16.94660638094776</v>
       </c>
       <c r="U15" t="inlineStr">
         <is>
-          <t>[7.319704907560336, 16.496520586687645]</t>
+          <t>[11.911319790984187, 21.98189297091134]</t>
         </is>
       </c>
       <c r="V15" t="n">
-        <v>4.302964197400172e-06</v>
+        <v>2.171796431582607e-08</v>
       </c>
       <c r="W15" t="n">
-        <v>4.302964197400172e-06</v>
+        <v>2.171796431582607e-08</v>
       </c>
       <c r="X15" t="n">
-        <v>18.74912912912935</v>
+        <v>20.03873873873888</v>
       </c>
       <c r="Y15" t="n">
-        <v>6.965325325325411</v>
+        <v>8.660420420420483</v>
       </c>
       <c r="Z15" t="n">
-        <v>30.5329329329333</v>
+        <v>31.41705705705727</v>
       </c>
     </row>
   </sheetData>
